--- a/DSP00-课程设计-文档/doc/分工与评分.xlsx
+++ b/DSP00-课程设计-文档/doc/分工与评分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,22 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>张一</t>
-  </si>
-  <si>
-    <t>张二</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>张四</t>
-  </si>
-  <si>
-    <t>张五</t>
-  </si>
-  <si>
-    <t>张六</t>
+    <t>陈翌玮</t>
+  </si>
+  <si>
+    <t>陈辉宇</t>
+  </si>
+  <si>
+    <t>陈铭涛</t>
+  </si>
+  <si>
+    <t>叶超强</t>
+  </si>
+  <si>
+    <t>陈源浩</t>
+  </si>
+  <si>
+    <t>蔡昊轩</t>
   </si>
   <si>
     <t>李一</t>
@@ -172,8 +172,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -213,23 +213,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,26 +251,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,23 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +286,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,7 +314,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,25 +389,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,157 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,21 +729,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -775,20 +760,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,7 +1395,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,24 +1500,12 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8">
-        <v>2018000001</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2018000002</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2018000003</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2018000004</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2018000005</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2018000006</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>2018000011</v>
       </c>
@@ -1686,7 +1674,9 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
@@ -1705,7 +1695,9 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -1724,7 +1716,9 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="19"/>
@@ -1789,7 +1783,9 @@
         <v>29</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1808,7 +1804,9 @@
         <v>30</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1827,7 +1825,9 @@
         <v>31</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1848,7 +1848,9 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="20"/>
       <c r="H15" s="16"/>
@@ -1916,7 +1918,9 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1934,7 +1938,9 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1954,7 +1960,9 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -2034,7 +2042,9 @@
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2053,7 +2063,9 @@
       <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -2072,7 +2084,9 @@
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -2095,7 +2109,9 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -2114,7 +2130,9 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
       <c r="G26" s="24"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -2134,7 +2152,9 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -2151,7 +2171,9 @@
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="23"/>
@@ -2170,7 +2192,9 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="25">
+        <v>1</v>
+      </c>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="H29" s="25"/>
@@ -2189,7 +2213,9 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="27">
+        <v>1</v>
+      </c>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
       <c r="H30" s="27"/>

--- a/DSP00-课程设计-文档/doc/分工与评分.xlsx
+++ b/DSP00-课程设计-文档/doc/分工与评分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,22 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>陈翌玮</t>
-  </si>
-  <si>
-    <t>陈辉宇</t>
-  </si>
-  <si>
-    <t>陈铭涛</t>
-  </si>
-  <si>
-    <t>叶超强</t>
-  </si>
-  <si>
-    <t>陈源浩</t>
-  </si>
-  <si>
-    <t>蔡昊轩</t>
+    <t>张一</t>
+  </si>
+  <si>
+    <t>张二</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>张四</t>
+  </si>
+  <si>
+    <t>张五</t>
+  </si>
+  <si>
+    <t>张六</t>
   </si>
   <si>
     <t>李一</t>
@@ -172,8 +172,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -213,24 +213,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,10 +250,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,7 +290,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,14 +317,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,30 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,31 +389,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,49 +539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,91 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,6 +729,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -760,35 +775,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,7 +1395,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,12 +1500,24 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="8">
+        <v>2018000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2018000002</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2018000003</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2018000004</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2018000005</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2018000006</v>
+      </c>
       <c r="H4" s="9">
         <v>2018000011</v>
       </c>
@@ -1674,9 +1686,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
@@ -1695,9 +1705,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -1716,9 +1724,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="19"/>
@@ -1783,9 +1789,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1804,9 +1808,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1825,9 +1827,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1848,9 +1848,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="20"/>
       <c r="H15" s="16"/>
@@ -1918,9 +1916,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
+      <c r="G17" s="18"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1938,9 +1934,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="19"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1960,9 +1954,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="20">
-        <v>1</v>
-      </c>
+      <c r="G19" s="20"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -2042,9 +2034,7 @@
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14">
-        <v>1</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2063,9 +2053,7 @@
       <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="16">
-        <v>1</v>
-      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -2084,9 +2072,7 @@
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -2109,9 +2095,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="21">
-        <v>1</v>
-      </c>
+      <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -2130,9 +2114,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="23">
-        <v>1</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -2152,9 +2134,7 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="26">
-        <v>1</v>
-      </c>
+      <c r="G27" s="26"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -2171,9 +2151,7 @@
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="23">
-        <v>1</v>
-      </c>
+      <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="23"/>
@@ -2192,9 +2170,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="25">
-        <v>1</v>
-      </c>
+      <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="H29" s="25"/>
@@ -2213,9 +2189,7 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="27">
-        <v>1</v>
-      </c>
+      <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
       <c r="H30" s="27"/>
